--- a/doc/usctranslations.xlsx
+++ b/doc/usctranslations.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="1146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="1226">
   <si>
     <t>Key</t>
   </si>
@@ -1262,6 +1262,24 @@
     <t>Nombre del canal</t>
   </si>
   <si>
+    <t>comm_root</t>
+  </si>
+  <si>
+    <t>Root</t>
+  </si>
+  <si>
+    <t>根节点</t>
+  </si>
+  <si>
+    <t>根節點</t>
+  </si>
+  <si>
+    <t>Raiz</t>
+  </si>
+  <si>
+    <t>Raíz</t>
+  </si>
+  <si>
     <t>Router</t>
   </si>
   <si>
@@ -3465,6 +3483,228 @@
   </si>
   <si>
     <t>Análisis de metadatos</t>
+  </si>
+  <si>
+    <t>ana_rule_config</t>
+  </si>
+  <si>
+    <t>Rule Configuration</t>
+  </si>
+  <si>
+    <t>规则配置</t>
+  </si>
+  <si>
+    <t>規則配置</t>
+  </si>
+  <si>
+    <t>Configuração de regras</t>
+  </si>
+  <si>
+    <t>Configuración de reglas</t>
+  </si>
+  <si>
+    <t>ana_event_search</t>
+  </si>
+  <si>
+    <t>Event Search</t>
+  </si>
+  <si>
+    <t>事件搜索</t>
+  </si>
+  <si>
+    <t>Pesquisa de eventos</t>
+  </si>
+  <si>
+    <t>Búsqueda de eventos</t>
+  </si>
+  <si>
+    <t>ana_infer_server_settting</t>
+  </si>
+  <si>
+    <t>Infer Server Settting</t>
+  </si>
+  <si>
+    <t>推理服务配置</t>
+  </si>
+  <si>
+    <t>推理服務配置</t>
+  </si>
+  <si>
+    <t>Inferir configuração do servidor</t>
+  </si>
+  <si>
+    <t>Inferir la configuración del servidor</t>
+  </si>
+  <si>
+    <t>ana_Infer_server_status</t>
+  </si>
+  <si>
+    <t>Infer Server Status</t>
+  </si>
+  <si>
+    <t>推理服务状态</t>
+  </si>
+  <si>
+    <t>推理服務狀態</t>
+  </si>
+  <si>
+    <t>Inferir o status do servidor</t>
+  </si>
+  <si>
+    <t>Inferir el estado del servidor</t>
+  </si>
+  <si>
+    <t>ana_work_server</t>
+  </si>
+  <si>
+    <t>Work Server</t>
+  </si>
+  <si>
+    <t>归属服务器</t>
+  </si>
+  <si>
+    <t>歸屬服務器</t>
+  </si>
+  <si>
+    <t>Servidor de trabalho</t>
+  </si>
+  <si>
+    <t>servidor de trabajo</t>
+  </si>
+  <si>
+    <t>ana_enfine</t>
+  </si>
+  <si>
+    <t>Engine</t>
+  </si>
+  <si>
+    <t>引擎</t>
+  </si>
+  <si>
+    <t>Motor</t>
+  </si>
+  <si>
+    <t>ana_model_accuracy</t>
+  </si>
+  <si>
+    <t>Model Accuracy</t>
+  </si>
+  <si>
+    <t>模型精度</t>
+  </si>
+  <si>
+    <t>Precisão do modelo</t>
+  </si>
+  <si>
+    <t>Precisión del modelo</t>
+  </si>
+  <si>
+    <t>ana_driver_version</t>
+  </si>
+  <si>
+    <t>Driver Version</t>
+  </si>
+  <si>
+    <t>驱动版本</t>
+  </si>
+  <si>
+    <t>驅動版本</t>
+  </si>
+  <si>
+    <t>Versão do driver</t>
+  </si>
+  <si>
+    <t>Versión del controlador</t>
+  </si>
+  <si>
+    <t>ana_runtime_version</t>
+  </si>
+  <si>
+    <t>Runtime Version</t>
+  </si>
+  <si>
+    <t>运行版本</t>
+  </si>
+  <si>
+    <t>運行版本</t>
+  </si>
+  <si>
+    <t>Versão de tempo de execução</t>
+  </si>
+  <si>
+    <t>Versión de tiempo de ejecución de</t>
+  </si>
+  <si>
+    <t>ana_detail</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>详情</t>
+  </si>
+  <si>
+    <t>詳情</t>
+  </si>
+  <si>
+    <t>Detalhes</t>
+  </si>
+  <si>
+    <t>Detalles</t>
+  </si>
+  <si>
+    <t>ana_load_model</t>
+  </si>
+  <si>
+    <t>Load Model</t>
+  </si>
+  <si>
+    <t>加载模型</t>
+  </si>
+  <si>
+    <t>加載模型</t>
+  </si>
+  <si>
+    <t>Carregar Modelo</t>
+  </si>
+  <si>
+    <t>Cargar modelo</t>
+  </si>
+  <si>
+    <t>ana_version_number</t>
+  </si>
+  <si>
+    <t>Version Number</t>
+  </si>
+  <si>
+    <t>版本号</t>
+  </si>
+  <si>
+    <t>版本號</t>
+  </si>
+  <si>
+    <t>Número da versão</t>
+  </si>
+  <si>
+    <t>Número de versión</t>
+  </si>
+  <si>
+    <t>ana_rules</t>
+  </si>
+  <si>
+    <t>Rules</t>
+  </si>
+  <si>
+    <t>规则数</t>
+  </si>
+  <si>
+    <t>規則數</t>
+  </si>
+  <si>
+    <t>Regras</t>
+  </si>
+  <si>
+    <t>Normas</t>
   </si>
 </sst>
 </file>
@@ -4118,7 +4358,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4153,9 +4393,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4506,12 +4743,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G218"/>
+  <dimension ref="A1:G232"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A199" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D211" sqref="D211"/>
+      <selection pane="bottomLeft" activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="31.95" customHeight="1" outlineLevelCol="6"/>
@@ -6090,88 +6327,88 @@
       </c>
     </row>
     <row r="75" customHeight="1" spans="1:7">
-      <c r="A75" s="6" t="s">
+      <c r="A75" s="6"/>
+      <c r="B75" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="C75" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="D75" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="E75" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="1:7">
+      <c r="A76" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="D76" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="E75" s="5" t="s">
+      <c r="E76" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="F75" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="G75" s="5" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="76" customHeight="1" spans="1:7">
-      <c r="A76" s="6"/>
-      <c r="B76" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>221</v>
+      <c r="F76" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="1:7">
       <c r="A77" s="6"/>
       <c r="B77" s="2" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>418</v>
+        <v>218</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>419</v>
+        <v>219</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>419</v>
+        <v>219</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>420</v>
+        <v>220</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>421</v>
+        <v>221</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="1:7">
       <c r="A78" s="6"/>
       <c r="B78" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="E78" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="F78" s="5" t="s">
+      <c r="E78" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="F78" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="G78" s="5" t="s">
+      <c r="G78" s="3" t="s">
         <v>427</v>
       </c>
     </row>
@@ -6187,33 +6424,33 @@
         <v>430</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="G79" s="9" t="s">
-        <v>431</v>
+        <v>432</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="80" customHeight="1" spans="1:7">
       <c r="A80" s="6"/>
       <c r="B80" s="2" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="G80" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="G80" s="9" t="s">
         <v>437</v>
       </c>
     </row>
@@ -6345,50 +6582,50 @@
     </row>
     <row r="87" customHeight="1" spans="1:7">
       <c r="A87" s="6"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
+      <c r="B87" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="88" customHeight="1" spans="1:7">
-      <c r="A88" s="6" t="s">
-        <v>474</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="G88" s="3" t="s">
-        <v>479</v>
-      </c>
+      <c r="A88" s="6"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
     </row>
     <row r="89" customHeight="1" spans="1:7">
-      <c r="A89" s="6"/>
+      <c r="A89" s="6" t="s">
+        <v>480</v>
+      </c>
       <c r="B89" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>485</v>
@@ -6406,25 +6643,25 @@
         <v>488</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="G90" s="10" t="s">
         <v>490</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="1:7">
       <c r="A91" s="6"/>
       <c r="B91" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>494</v>
@@ -6458,46 +6695,46 @@
       </c>
     </row>
     <row r="93" customHeight="1" spans="1:7">
-      <c r="A93" s="6" t="s">
-        <v>413</v>
-      </c>
+      <c r="A93" s="6"/>
       <c r="B93" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="D93" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="E93" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="F93" s="2" t="s">
+      <c r="F93" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="G93" s="3" t="s">
+      <c r="G93" s="10" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="94" customHeight="1" spans="1:7">
-      <c r="A94" s="6"/>
-      <c r="B94" s="3" t="s">
+      <c r="A94" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C94" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D94" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="E94" s="5" t="s">
+      <c r="E94" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="F94" s="5" t="s">
+      <c r="F94" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="G94" s="5" t="s">
+      <c r="G94" s="3" t="s">
         <v>514</v>
       </c>
     </row>
@@ -6566,27 +6803,45 @@
     </row>
     <row r="98" customHeight="1" spans="1:7">
       <c r="A98" s="6"/>
-      <c r="B98" s="2" t="s">
+      <c r="B98" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C98" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="D98" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="E98" s="2" t="s">
+      <c r="E98" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="F98" s="2" t="s">
+      <c r="F98" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="G98" s="3" t="s">
+      <c r="G98" s="5" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="99" customHeight="1" spans="1:7">
       <c r="A99" s="6"/>
+      <c r="B99" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>544</v>
+      </c>
     </row>
     <row r="100" customHeight="1" spans="1:7">
       <c r="A100" s="6"/>
@@ -6601,30 +6856,12 @@
       <c r="A103" s="6"/>
     </row>
     <row r="104" customHeight="1" spans="1:7">
-      <c r="A104" s="6" t="s">
+      <c r="A104" s="6"/>
+    </row>
+    <row r="105" customHeight="1" spans="1:7">
+      <c r="A105" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="E104" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="F104" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="G104" s="5" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="105" customHeight="1" spans="1:7">
-      <c r="A105" s="6"/>
       <c r="B105" s="2" t="s">
         <v>545</v>
       </c>
@@ -6646,7 +6883,7 @@
     </row>
     <row r="106" customHeight="1" spans="1:7">
       <c r="A106" s="6"/>
-      <c r="B106" s="3" t="s">
+      <c r="B106" s="2" t="s">
         <v>551</v>
       </c>
       <c r="C106" s="3" t="s">
@@ -6718,19 +6955,19 @@
       <c r="D109" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="E109" s="3" t="s">
+      <c r="E109" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="F109" s="3" t="s">
+      <c r="F109" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="G109" s="3" t="s">
+      <c r="G109" s="5" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="110" customHeight="1" spans="1:7">
       <c r="A110" s="6"/>
-      <c r="B110" s="2" t="s">
+      <c r="B110" s="3" t="s">
         <v>575</v>
       </c>
       <c r="C110" s="3" t="s">
@@ -6740,25 +6977,25 @@
         <v>577</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="G110" s="10" t="s">
         <v>579</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="111" customHeight="1" spans="1:7">
       <c r="A111" s="6"/>
       <c r="B111" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>583</v>
@@ -6766,7 +7003,7 @@
       <c r="F111" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="G111" s="3" t="s">
+      <c r="G111" s="10" t="s">
         <v>585</v>
       </c>
     </row>
@@ -6788,70 +7025,70 @@
         <v>590</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="113" customHeight="1" spans="1:7">
       <c r="A113" s="6"/>
-      <c r="B113" s="3" t="s">
-        <v>591</v>
+      <c r="B113" s="2" t="s">
+        <v>592</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>593</v>
-      </c>
-      <c r="E113" s="5" t="s">
         <v>594</v>
       </c>
-      <c r="F113" s="5" t="s">
-        <v>592</v>
-      </c>
-      <c r="G113" s="5" t="s">
+      <c r="E113" s="3" t="s">
         <v>595</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="114" customHeight="1" spans="1:7">
       <c r="A114" s="6"/>
-      <c r="B114" s="2" t="s">
-        <v>596</v>
+      <c r="B114" s="3" t="s">
+        <v>597</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="115" customHeight="1" spans="1:7">
       <c r="A115" s="6"/>
-      <c r="B115" s="3" t="s">
-        <v>598</v>
+      <c r="B115" s="2" t="s">
+        <v>602</v>
       </c>
       <c r="C115" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D115" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="D115" s="3" t="s">
+      <c r="E115" s="5" t="s">
         <v>600</v>
       </c>
-      <c r="E115" s="5" t="s">
+      <c r="F115" s="5" t="s">
         <v>601</v>
       </c>
-      <c r="F115" s="5" t="s">
-        <v>602</v>
-      </c>
       <c r="G115" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="116" customHeight="1" spans="1:7">
@@ -6950,62 +7187,62 @@
         <v>630</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="121" customHeight="1" spans="1:7">
       <c r="A121" s="6"/>
+      <c r="B121" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="G121" s="5" t="s">
+        <v>638</v>
+      </c>
     </row>
     <row r="122" customHeight="1" spans="1:7">
       <c r="A122" s="6"/>
     </row>
     <row r="123" customHeight="1" spans="1:7">
-      <c r="A123" s="6" t="s">
-        <v>633</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="G123" s="3" t="s">
-        <v>638</v>
-      </c>
+      <c r="A123" s="6"/>
     </row>
     <row r="124" customHeight="1" spans="1:7">
-      <c r="A124" s="6"/>
-      <c r="B124" s="3" t="s">
+      <c r="A124" s="6" t="s">
         <v>639</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="B124" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="D124" s="3" t="s">
+      <c r="C124" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="E124" s="5" t="s">
+      <c r="E124" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="F124" s="5" t="s">
+      <c r="F124" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="G124" s="5" t="s">
+      <c r="G124" s="3" t="s">
         <v>644</v>
       </c>
     </row>
@@ -7027,27 +7264,27 @@
         <v>649</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="126" customHeight="1" spans="1:7">
       <c r="A126" s="6"/>
       <c r="B126" s="3" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="E126" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="F126" s="3" t="s">
+      <c r="E126" s="5" t="s">
         <v>654</v>
       </c>
-      <c r="G126" s="3" t="s">
+      <c r="F126" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="G126" s="5" t="s">
         <v>655</v>
       </c>
     </row>
@@ -7063,25 +7300,25 @@
         <v>658</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="128" customHeight="1" spans="1:7">
       <c r="A128" s="6"/>
       <c r="B128" s="3" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="E128" s="3" t="s">
         <v>664</v>
@@ -7090,61 +7327,61 @@
         <v>665</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="129" customHeight="1" spans="1:7">
       <c r="A129" s="6"/>
       <c r="B129" s="3" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="E129" s="5" t="s">
         <v>669</v>
       </c>
-      <c r="F129" s="5" t="s">
+      <c r="E129" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="G129" s="5" t="s">
-        <v>667</v>
+      <c r="F129" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="130" customHeight="1" spans="1:7">
       <c r="A130" s="6"/>
       <c r="B130" s="3" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D130" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="F130" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="G130" s="5" t="s">
         <v>673</v>
-      </c>
-      <c r="E130" s="5" t="s">
-        <v>673</v>
-      </c>
-      <c r="F130" s="5" t="s">
-        <v>674</v>
-      </c>
-      <c r="G130" s="5" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="131" customHeight="1" spans="1:7">
       <c r="A131" s="6"/>
       <c r="B131" s="3" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="E131" s="5" t="s">
         <v>679</v>
@@ -7178,73 +7415,73 @@
       </c>
     </row>
     <row r="133" customHeight="1" spans="1:7">
-      <c r="A133" s="6" t="s">
+      <c r="A133" s="6"/>
+      <c r="B133" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="C133" s="3" t="s">
         <v>689</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>688</v>
       </c>
       <c r="D133" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="E133" s="3" t="s">
+      <c r="E133" s="5" t="s">
         <v>691</v>
       </c>
-      <c r="F133" s="3" t="s">
+      <c r="F133" s="5" t="s">
         <v>692</v>
       </c>
-      <c r="G133" s="3" t="s">
-        <v>692</v>
+      <c r="G133" s="5" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="134" customHeight="1" spans="1:7">
-      <c r="A134" s="6"/>
+      <c r="A134" s="6" t="s">
+        <v>694</v>
+      </c>
       <c r="B134" s="3" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>92</v>
+        <v>694</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>694</v>
-      </c>
-      <c r="E134" s="5" t="s">
-        <v>695</v>
-      </c>
-      <c r="F134" s="5" t="s">
         <v>696</v>
       </c>
-      <c r="G134" s="5" t="s">
-        <v>221</v>
+      <c r="E134" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="135" customHeight="1" spans="1:7">
       <c r="A135" s="6"/>
       <c r="B135" s="3" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>698</v>
+        <v>92</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>699</v>
-      </c>
-      <c r="E135" s="3" t="s">
         <v>700</v>
       </c>
-      <c r="F135" s="3" t="s">
+      <c r="E135" s="5" t="s">
         <v>701</v>
       </c>
-      <c r="G135" s="3" t="s">
+      <c r="F135" s="5" t="s">
         <v>702</v>
+      </c>
+      <c r="G135" s="5" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="136" customHeight="1" spans="1:7">
       <c r="A136" s="6"/>
-      <c r="B136" s="5" t="s">
+      <c r="B136" s="3" t="s">
         <v>703</v>
       </c>
       <c r="C136" s="3" t="s">
@@ -7253,13 +7490,13 @@
       <c r="D136" s="3" t="s">
         <v>705</v>
       </c>
-      <c r="E136" s="5" t="s">
+      <c r="E136" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="F136" s="5" t="s">
+      <c r="F136" s="3" t="s">
         <v>707</v>
       </c>
-      <c r="G136" s="5" t="s">
+      <c r="G136" s="3" t="s">
         <v>708</v>
       </c>
     </row>
@@ -7307,22 +7544,22 @@
     </row>
     <row r="139" customHeight="1" spans="1:7">
       <c r="A139" s="6"/>
-      <c r="B139" s="2" t="s">
+      <c r="B139" s="5" t="s">
         <v>721</v>
       </c>
-      <c r="C139" s="2" t="s">
+      <c r="C139" s="3" t="s">
         <v>722</v>
       </c>
-      <c r="D139" s="2" t="s">
+      <c r="D139" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="E139" s="2" t="s">
+      <c r="E139" s="5" t="s">
         <v>724</v>
       </c>
-      <c r="F139" s="2" t="s">
+      <c r="F139" s="5" t="s">
         <v>725</v>
       </c>
-      <c r="G139" s="3" t="s">
+      <c r="G139" s="5" t="s">
         <v>726</v>
       </c>
     </row>
@@ -7365,108 +7602,108 @@
         <v>737</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="142" customHeight="1" spans="1:7">
       <c r="A142" s="6"/>
       <c r="B142" s="2" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>576</v>
+        <v>740</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="G142" s="10" t="s">
-        <v>579</v>
+        <v>743</v>
+      </c>
+      <c r="G142" s="3" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="143" customHeight="1" spans="1:7">
       <c r="A143" s="6"/>
-      <c r="B143" s="3" t="s">
-        <v>741</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>742</v>
-      </c>
-      <c r="D143" s="3" t="s">
-        <v>743</v>
-      </c>
-      <c r="E143" s="5" t="s">
+      <c r="B143" s="2" t="s">
         <v>744</v>
       </c>
-      <c r="F143" s="5" t="s">
+      <c r="C143" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="D143" s="2" t="s">
         <v>745</v>
       </c>
-      <c r="G143" s="5" t="s">
+      <c r="E143" s="2" t="s">
         <v>746</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="G143" s="10" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="144" customHeight="1" spans="1:7">
       <c r="A144" s="6"/>
-      <c r="B144" s="5" t="s">
+      <c r="B144" s="3" t="s">
         <v>747</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>716</v>
+        <v>748</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>717</v>
+        <v>749</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>718</v>
+        <v>750</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>719</v>
+        <v>751</v>
       </c>
       <c r="G144" s="5" t="s">
-        <v>720</v>
+        <v>752</v>
       </c>
     </row>
     <row r="145" customHeight="1" spans="1:7">
       <c r="A145" s="6"/>
-      <c r="B145" s="2" t="s">
-        <v>748</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>749</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>750</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>751</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>752</v>
-      </c>
-      <c r="G145" s="3" t="s">
+      <c r="B145" s="5" t="s">
         <v>753</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="F145" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="G145" s="5" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="146" customHeight="1" spans="1:7">
       <c r="A146" s="6"/>
-      <c r="B146" s="3" t="s">
+      <c r="B146" s="2" t="s">
         <v>754</v>
       </c>
-      <c r="C146" s="3" t="s">
+      <c r="C146" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="D146" s="3" t="s">
+      <c r="D146" s="2" t="s">
         <v>756</v>
       </c>
-      <c r="E146" s="3" t="s">
+      <c r="E146" s="2" t="s">
         <v>757</v>
       </c>
-      <c r="F146" s="3" t="s">
+      <c r="F146" s="2" t="s">
         <v>758</v>
       </c>
       <c r="G146" s="3" t="s">
@@ -7475,19 +7712,19 @@
     </row>
     <row r="147" customHeight="1" spans="1:7">
       <c r="A147" s="6"/>
-      <c r="B147" s="2" t="s">
+      <c r="B147" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="C147" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="D147" s="2" t="s">
+      <c r="D147" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="E147" s="2" t="s">
+      <c r="E147" s="3" t="s">
         <v>763</v>
       </c>
-      <c r="F147" s="2" t="s">
+      <c r="F147" s="3" t="s">
         <v>764</v>
       </c>
       <c r="G147" s="3" t="s">
@@ -7496,56 +7733,56 @@
     </row>
     <row r="148" customHeight="1" spans="1:7">
       <c r="A148" s="6"/>
-      <c r="B148" s="3" t="s">
+      <c r="B148" s="2" t="s">
         <v>766</v>
       </c>
-      <c r="C148" s="3" t="s">
+      <c r="C148" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="D148" s="3" t="s">
+      <c r="D148" s="2" t="s">
         <v>768</v>
       </c>
-      <c r="E148" s="5" t="s">
+      <c r="E148" s="2" t="s">
         <v>769</v>
       </c>
-      <c r="F148" s="5" t="s">
+      <c r="F148" s="2" t="s">
         <v>770</v>
       </c>
-      <c r="G148" s="5" t="s">
+      <c r="G148" s="3" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="149" customHeight="1" spans="1:7">
       <c r="A149" s="6"/>
-      <c r="B149" s="2" t="s">
+      <c r="B149" s="3" t="s">
         <v>772</v>
       </c>
-      <c r="C149" s="2" t="s">
+      <c r="C149" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="D149" s="2" t="s">
+      <c r="D149" s="3" t="s">
         <v>774</v>
       </c>
-      <c r="E149" s="2" t="s">
-        <v>774</v>
-      </c>
-      <c r="F149" s="2" t="s">
+      <c r="E149" s="5" t="s">
         <v>775</v>
       </c>
-      <c r="G149" s="3" t="s">
+      <c r="F149" s="5" t="s">
         <v>776</v>
+      </c>
+      <c r="G149" s="5" t="s">
+        <v>777</v>
       </c>
     </row>
     <row r="150" customHeight="1" spans="1:7">
       <c r="A150" s="6"/>
       <c r="B150" s="2" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>780</v>
@@ -7553,7 +7790,7 @@
       <c r="F150" s="2" t="s">
         <v>781</v>
       </c>
-      <c r="G150" s="10" t="s">
+      <c r="G150" s="3" t="s">
         <v>782</v>
       </c>
     </row>
@@ -7574,7 +7811,7 @@
       <c r="F151" s="2" t="s">
         <v>787</v>
       </c>
-      <c r="G151" s="3" t="s">
+      <c r="G151" s="10" t="s">
         <v>788</v>
       </c>
     </row>
@@ -7589,13 +7826,13 @@
       <c r="D152" s="2" t="s">
         <v>791</v>
       </c>
-      <c r="E152" s="11" t="s">
+      <c r="E152" s="2" t="s">
         <v>792</v>
       </c>
-      <c r="F152" s="11" t="s">
+      <c r="F152" s="2" t="s">
         <v>793</v>
       </c>
-      <c r="G152" s="5" t="s">
+      <c r="G152" s="3" t="s">
         <v>794</v>
       </c>
     </row>
@@ -7604,16 +7841,16 @@
       <c r="B153" s="2" t="s">
         <v>795</v>
       </c>
-      <c r="C153" s="3" t="s">
+      <c r="C153" s="2" t="s">
         <v>796</v>
       </c>
-      <c r="D153" s="3" t="s">
+      <c r="D153" s="2" t="s">
         <v>797</v>
       </c>
-      <c r="E153" s="5" t="s">
+      <c r="E153" s="11" t="s">
         <v>798</v>
       </c>
-      <c r="F153" s="5" t="s">
+      <c r="F153" s="11" t="s">
         <v>799</v>
       </c>
       <c r="G153" s="5" t="s">
@@ -7625,38 +7862,38 @@
       <c r="B154" s="2" t="s">
         <v>801</v>
       </c>
-      <c r="C154" s="2" t="s">
+      <c r="C154" s="3" t="s">
         <v>802</v>
       </c>
-      <c r="D154" s="2" t="s">
+      <c r="D154" s="3" t="s">
         <v>803</v>
       </c>
-      <c r="E154" s="2" t="s">
+      <c r="E154" s="5" t="s">
         <v>804</v>
       </c>
-      <c r="F154" s="2" t="s">
+      <c r="F154" s="5" t="s">
         <v>805</v>
       </c>
-      <c r="G154" s="3" t="s">
-        <v>805</v>
+      <c r="G154" s="5" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="155" customHeight="1" spans="1:7">
       <c r="A155" s="6"/>
       <c r="B155" s="2" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="G155" s="3" t="s">
         <v>811</v>
@@ -7667,59 +7904,59 @@
       <c r="B156" s="2" t="s">
         <v>812</v>
       </c>
-      <c r="C156" s="3" t="s">
+      <c r="C156" s="2" t="s">
         <v>813</v>
       </c>
-      <c r="D156" s="3" t="s">
+      <c r="D156" s="2" t="s">
         <v>814</v>
       </c>
-      <c r="E156" s="3" t="s">
+      <c r="E156" s="2" t="s">
         <v>815</v>
       </c>
-      <c r="F156" s="3" t="s">
+      <c r="F156" s="2" t="s">
         <v>816</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="157" customHeight="1" spans="1:7">
       <c r="A157" s="6"/>
       <c r="B157" s="2" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>299</v>
+        <v>822</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="158" customHeight="1" spans="1:7">
       <c r="A158" s="6"/>
       <c r="B158" s="2" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>826</v>
+        <v>299</v>
       </c>
       <c r="G158" s="3" t="s">
         <v>827</v>
@@ -7820,13 +8057,13 @@
       <c r="D163" s="3" t="s">
         <v>854</v>
       </c>
-      <c r="E163" s="5" t="s">
+      <c r="E163" s="3" t="s">
         <v>855</v>
       </c>
-      <c r="F163" s="5" t="s">
+      <c r="F163" s="3" t="s">
         <v>856</v>
       </c>
-      <c r="G163" s="5" t="s">
+      <c r="G163" s="3" t="s">
         <v>857</v>
       </c>
     </row>
@@ -7904,13 +8141,13 @@
       <c r="D167" s="3" t="s">
         <v>878</v>
       </c>
-      <c r="E167" s="3" t="s">
+      <c r="E167" s="5" t="s">
         <v>879</v>
       </c>
-      <c r="F167" s="3" t="s">
+      <c r="F167" s="5" t="s">
         <v>880</v>
       </c>
-      <c r="G167" s="3" t="s">
+      <c r="G167" s="5" t="s">
         <v>881</v>
       </c>
     </row>
@@ -7925,13 +8162,13 @@
       <c r="D168" s="3" t="s">
         <v>884</v>
       </c>
-      <c r="E168" s="5" t="s">
+      <c r="E168" s="3" t="s">
         <v>885</v>
       </c>
-      <c r="F168" s="5" t="s">
+      <c r="F168" s="3" t="s">
         <v>886</v>
       </c>
-      <c r="G168" s="5" t="s">
+      <c r="G168" s="3" t="s">
         <v>887</v>
       </c>
     </row>
@@ -8001,43 +8238,43 @@
     <row r="172" customHeight="1" spans="1:7">
       <c r="A172" s="6"/>
       <c r="B172" s="2" t="s">
-        <v>760</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>762</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>763</v>
-      </c>
-      <c r="F172" s="2" t="s">
-        <v>764</v>
-      </c>
-      <c r="G172" s="3" t="s">
-        <v>765</v>
+        <v>906</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="E172" s="5" t="s">
+        <v>909</v>
+      </c>
+      <c r="F172" s="5" t="s">
+        <v>910</v>
+      </c>
+      <c r="G172" s="5" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="173" customHeight="1" spans="1:7">
       <c r="A173" s="6"/>
       <c r="B173" s="2" t="s">
-        <v>906</v>
-      </c>
-      <c r="C173" s="3" t="s">
-        <v>907</v>
-      </c>
-      <c r="D173" s="3" t="s">
-        <v>908</v>
-      </c>
-      <c r="E173" s="5" t="s">
-        <v>909</v>
-      </c>
-      <c r="F173" s="5" t="s">
-        <v>910</v>
-      </c>
-      <c r="G173" s="5" t="s">
-        <v>911</v>
+        <v>766</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="G173" s="3" t="s">
+        <v>771</v>
       </c>
     </row>
     <row r="174" customHeight="1" spans="1:7">
@@ -8073,40 +8310,40 @@
         <v>920</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>706</v>
+        <v>921</v>
       </c>
       <c r="F175" s="5" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="G175" s="5" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
     </row>
     <row r="176" customHeight="1" spans="1:7">
       <c r="A176" s="6"/>
       <c r="B176" s="2" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>704</v>
+        <v>925</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>705</v>
+        <v>926</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="F176" s="5" t="s">
-        <v>707</v>
+        <v>927</v>
       </c>
       <c r="G176" s="5" t="s">
-        <v>708</v>
+        <v>928</v>
       </c>
     </row>
     <row r="177" customHeight="1" spans="1:7">
       <c r="A177" s="6"/>
       <c r="B177" s="2" t="s">
-        <v>924</v>
+        <v>929</v>
       </c>
       <c r="C177" s="3" t="s">
         <v>710</v>
@@ -8127,22 +8364,22 @@
     <row r="178" customHeight="1" spans="1:7">
       <c r="A178" s="6"/>
       <c r="B178" s="2" t="s">
-        <v>925</v>
+        <v>930</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>926</v>
+        <v>716</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>927</v>
+        <v>717</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>928</v>
+        <v>718</v>
       </c>
       <c r="F178" s="5" t="s">
-        <v>929</v>
+        <v>719</v>
       </c>
       <c r="G178" s="5" t="s">
-        <v>930</v>
+        <v>720</v>
       </c>
     </row>
     <row r="179" customHeight="1" spans="1:7">
@@ -8151,40 +8388,40 @@
         <v>931</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>716</v>
+        <v>932</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>717</v>
+        <v>933</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>718</v>
+        <v>934</v>
       </c>
       <c r="F179" s="5" t="s">
-        <v>719</v>
+        <v>935</v>
       </c>
       <c r="G179" s="5" t="s">
-        <v>720</v>
+        <v>936</v>
       </c>
     </row>
     <row r="180" customHeight="1" spans="1:7">
       <c r="A180" s="6"/>
       <c r="B180" s="2" t="s">
-        <v>932</v>
+        <v>937</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>933</v>
+        <v>722</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>934</v>
+        <v>723</v>
       </c>
       <c r="E180" s="5" t="s">
-        <v>935</v>
+        <v>724</v>
       </c>
       <c r="F180" s="5" t="s">
-        <v>936</v>
+        <v>725</v>
       </c>
       <c r="G180" s="5" t="s">
-        <v>937</v>
+        <v>726</v>
       </c>
     </row>
     <row r="181" customHeight="1" spans="1:7">
@@ -8282,13 +8519,13 @@
       <c r="D185" s="3" t="s">
         <v>964</v>
       </c>
-      <c r="E185" s="3" t="s">
+      <c r="E185" s="5" t="s">
         <v>965</v>
       </c>
-      <c r="F185" s="3" t="s">
+      <c r="F185" s="5" t="s">
         <v>966</v>
       </c>
-      <c r="G185" s="3" t="s">
+      <c r="G185" s="5" t="s">
         <v>967</v>
       </c>
     </row>
@@ -8367,141 +8604,141 @@
         <v>988</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
     </row>
     <row r="190" customHeight="1" spans="1:7">
       <c r="A190" s="6"/>
       <c r="B190" s="2" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
     </row>
     <row r="191" customHeight="1" spans="1:7">
       <c r="A191" s="6"/>
       <c r="B191" s="2" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>997</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="192" customHeight="1" spans="1:7">
       <c r="A192" s="6"/>
       <c r="B192" s="2" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>581</v>
+        <v>1003</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>1002</v>
-      </c>
-      <c r="G192" s="10" t="s">
+        <v>1005</v>
+      </c>
+      <c r="G192" s="3" t="s">
         <v>1003</v>
       </c>
     </row>
     <row r="193" customHeight="1" spans="1:7">
-      <c r="A193" s="2" t="s">
-        <v>698</v>
-      </c>
+      <c r="A193" s="6"/>
       <c r="B193" s="2" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>698</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>1005</v>
-      </c>
-      <c r="E193" s="2" t="s">
         <v>1006</v>
       </c>
-      <c r="F193" s="2" t="s">
-        <v>701</v>
-      </c>
-      <c r="G193" s="3" t="s">
-        <v>702</v>
+      <c r="C193" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F193" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G193" s="10" t="s">
+        <v>1009</v>
       </c>
     </row>
     <row r="194" customHeight="1" spans="1:7">
-      <c r="A194" s="2"/>
+      <c r="A194" s="2" t="s">
+        <v>704</v>
+      </c>
       <c r="B194" s="2" t="s">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>365</v>
+        <v>704</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>366</v>
+        <v>1011</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>366</v>
+        <v>1012</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>367</v>
+        <v>707</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>368</v>
+        <v>708</v>
       </c>
     </row>
     <row r="195" customHeight="1" spans="1:7">
       <c r="A195" s="2"/>
       <c r="B195" s="2" t="s">
-        <v>1008</v>
+        <v>1013</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>1009</v>
+        <v>365</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>1010</v>
+        <v>366</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>1011</v>
+        <v>366</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>1012</v>
+        <v>367</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>1013</v>
+        <v>368</v>
       </c>
     </row>
     <row r="196" customHeight="1" spans="1:7">
@@ -8522,25 +8759,25 @@
         <v>1018</v>
       </c>
       <c r="G196" s="3" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="197" customHeight="1" spans="1:7">
       <c r="A197" s="2"/>
       <c r="B197" s="2" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="G197" s="3" t="s">
         <v>1024</v>
@@ -8648,25 +8885,25 @@
         <v>1053</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="203" customHeight="1" spans="1:7">
       <c r="A203" s="2"/>
       <c r="B203" s="2" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="G203" s="3" t="s">
         <v>1059</v>
@@ -8687,50 +8924,48 @@
         <v>1063</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>1061</v>
+        <v>1064</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>1061</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="205" customHeight="1" spans="1:7">
       <c r="A205" s="2"/>
       <c r="B205" s="2" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="E205" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F205" s="2" t="s">
         <v>1067</v>
       </c>
-      <c r="F205" s="2" t="s">
-        <v>1068</v>
-      </c>
       <c r="G205" s="3" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="206" customHeight="1" spans="1:7">
-      <c r="A206" s="12" t="s">
-        <v>418</v>
-      </c>
-      <c r="B206" s="3" t="s">
+      <c r="A206" s="2"/>
+      <c r="B206" s="2" t="s">
         <v>1070</v>
       </c>
-      <c r="C206" s="3" t="s">
+      <c r="C206" s="2" t="s">
         <v>1071</v>
       </c>
-      <c r="D206" s="3" t="s">
+      <c r="D206" s="2" t="s">
         <v>1072</v>
       </c>
-      <c r="E206" s="3" t="s">
+      <c r="E206" s="2" t="s">
         <v>1073</v>
       </c>
-      <c r="F206" s="3" t="s">
+      <c r="F206" s="2" t="s">
         <v>1074</v>
       </c>
       <c r="G206" s="3" t="s">
@@ -8738,7 +8973,9 @@
       </c>
     </row>
     <row r="207" customHeight="1" spans="1:7">
-      <c r="A207" s="12"/>
+      <c r="A207" s="2" t="s">
+        <v>424</v>
+      </c>
       <c r="B207" s="3" t="s">
         <v>1076</v>
       </c>
@@ -8759,7 +8996,7 @@
       </c>
     </row>
     <row r="208" customHeight="1" spans="1:7">
-      <c r="A208" s="12"/>
+      <c r="A208" s="2"/>
       <c r="B208" s="3" t="s">
         <v>1082</v>
       </c>
@@ -8780,20 +9017,20 @@
       </c>
     </row>
     <row r="209" customHeight="1" spans="1:7">
-      <c r="A209" s="12"/>
-      <c r="B209" s="2" t="s">
+      <c r="A209" s="2"/>
+      <c r="B209" s="3" t="s">
         <v>1088</v>
       </c>
-      <c r="C209" s="2" t="s">
+      <c r="C209" s="3" t="s">
         <v>1089</v>
       </c>
-      <c r="D209" s="2" t="s">
+      <c r="D209" s="3" t="s">
         <v>1090</v>
       </c>
-      <c r="E209" s="2" t="s">
+      <c r="E209" s="3" t="s">
         <v>1091</v>
       </c>
-      <c r="F209" s="2" t="s">
+      <c r="F209" s="3" t="s">
         <v>1092</v>
       </c>
       <c r="G209" s="3" t="s">
@@ -8801,7 +9038,7 @@
       </c>
     </row>
     <row r="210" customHeight="1" spans="1:7">
-      <c r="A210" s="12"/>
+      <c r="A210" s="2"/>
       <c r="B210" s="2" t="s">
         <v>1094</v>
       </c>
@@ -8822,7 +9059,7 @@
       </c>
     </row>
     <row r="211" customHeight="1" spans="1:7">
-      <c r="A211" s="12"/>
+      <c r="A211" s="2"/>
       <c r="B211" s="2" t="s">
         <v>1100</v>
       </c>
@@ -8843,7 +9080,7 @@
       </c>
     </row>
     <row r="212" customHeight="1" spans="1:7">
-      <c r="A212" s="12"/>
+      <c r="A212" s="2"/>
       <c r="B212" s="2" t="s">
         <v>1106</v>
       </c>
@@ -8864,7 +9101,7 @@
       </c>
     </row>
     <row r="213" customHeight="1" spans="1:7">
-      <c r="A213" s="12"/>
+      <c r="A213" s="2"/>
       <c r="B213" s="2" t="s">
         <v>1112</v>
       </c>
@@ -8878,35 +9115,35 @@
         <v>1115</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>1113</v>
+        <v>1116</v>
       </c>
       <c r="G213" s="3" t="s">
-        <v>1113</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="214" customHeight="1" spans="1:7">
-      <c r="A214" s="12"/>
+      <c r="A214" s="2"/>
       <c r="B214" s="2" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="E214" s="2" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F214" s="2" t="s">
         <v>1119</v>
       </c>
-      <c r="F214" s="2" t="s">
-        <v>1120</v>
-      </c>
       <c r="G214" s="3" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="215" customHeight="1" spans="1:7">
-      <c r="A215" s="12"/>
+      <c r="A215" s="2"/>
       <c r="B215" s="2" t="s">
         <v>1122</v>
       </c>
@@ -8927,8 +9164,8 @@
       </c>
     </row>
     <row r="216" customHeight="1" spans="1:7">
-      <c r="A216" s="12"/>
-      <c r="B216" s="3" t="s">
+      <c r="A216" s="2"/>
+      <c r="B216" s="2" t="s">
         <v>1128</v>
       </c>
       <c r="C216" s="2" t="s">
@@ -8948,8 +9185,8 @@
       </c>
     </row>
     <row r="217" customHeight="1" spans="1:7">
-      <c r="A217" s="12"/>
-      <c r="B217" s="2" t="s">
+      <c r="A217" s="2"/>
+      <c r="B217" s="3" t="s">
         <v>1134</v>
       </c>
       <c r="C217" s="2" t="s">
@@ -8969,7 +9206,7 @@
       </c>
     </row>
     <row r="218" customHeight="1" spans="1:7">
-      <c r="A218" s="12"/>
+      <c r="A218" s="2"/>
       <c r="B218" s="2" t="s">
         <v>1140</v>
       </c>
@@ -8987,6 +9224,300 @@
       </c>
       <c r="G218" s="3" t="s">
         <v>1145</v>
+      </c>
+    </row>
+    <row r="219" customHeight="1" spans="1:7">
+      <c r="A219" s="2"/>
+      <c r="B219" s="2" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>1149</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>1150</v>
+      </c>
+      <c r="G219" s="3" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="220" customHeight="1" spans="1:7">
+      <c r="A220" s="2"/>
+      <c r="B220" s="2" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="G220" s="3" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="221" customHeight="1" spans="1:7">
+      <c r="A221" s="2"/>
+      <c r="B221" s="2" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D221" s="3" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E221" s="3" t="s">
+        <v>1160</v>
+      </c>
+      <c r="F221" s="3" t="s">
+        <v>1161</v>
+      </c>
+      <c r="G221" s="3" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="222" customHeight="1" spans="1:7">
+      <c r="A222" s="2"/>
+      <c r="B222" s="3" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D222" s="3" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E222" s="3" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F222" s="3" t="s">
+        <v>1167</v>
+      </c>
+      <c r="G222" s="3" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="223" customHeight="1" spans="1:7">
+      <c r="A223" s="2"/>
+      <c r="B223" s="3" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D223" s="3" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E223" s="3" t="s">
+        <v>1172</v>
+      </c>
+      <c r="F223" s="3" t="s">
+        <v>1173</v>
+      </c>
+      <c r="G223" s="3" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="224" customHeight="1" spans="1:7">
+      <c r="A224" s="2"/>
+      <c r="B224" s="2" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D224" s="3" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E224" s="5" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F224" s="5" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G224" s="5" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="225" customHeight="1" spans="1:7">
+      <c r="A225" s="2"/>
+      <c r="B225" s="2" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>1183</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>1184</v>
+      </c>
+      <c r="G225" s="3" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="226" customHeight="1" spans="1:7">
+      <c r="A226" s="2"/>
+      <c r="B226" s="2" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>1188</v>
+      </c>
+      <c r="G226" s="3" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="227" customHeight="1" spans="1:7">
+      <c r="A227" s="2"/>
+      <c r="B227" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>1194</v>
+      </c>
+      <c r="G227" s="3" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="228" customHeight="1" spans="1:7">
+      <c r="A228" s="2"/>
+      <c r="B228" s="2" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>1200</v>
+      </c>
+      <c r="G228" s="3" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="229" customHeight="1" spans="1:7">
+      <c r="A229" s="2"/>
+      <c r="B229" s="2" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D229" s="3" t="s">
+        <v>1204</v>
+      </c>
+      <c r="E229" s="5" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F229" s="5" t="s">
+        <v>1206</v>
+      </c>
+      <c r="G229" s="5" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="230" customHeight="1" spans="1:7">
+      <c r="A230" s="2"/>
+      <c r="B230" s="2" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>1210</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F230" s="2" t="s">
+        <v>1212</v>
+      </c>
+      <c r="G230" s="3" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="231" customHeight="1" spans="1:7">
+      <c r="A231" s="2"/>
+      <c r="B231" s="2" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D231" s="3" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E231" s="5" t="s">
+        <v>1217</v>
+      </c>
+      <c r="F231" s="5" t="s">
+        <v>1218</v>
+      </c>
+      <c r="G231" s="5" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="232" customHeight="1" spans="1:7">
+      <c r="A232" s="2"/>
+      <c r="B232" s="2" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>1223</v>
+      </c>
+      <c r="F232" s="2" t="s">
+        <v>1224</v>
+      </c>
+      <c r="G232" s="3" t="s">
+        <v>1225</v>
       </c>
     </row>
   </sheetData>
@@ -8994,15 +9525,15 @@
     <mergeCell ref="A3:A16"/>
     <mergeCell ref="A17:A33"/>
     <mergeCell ref="A34:A66"/>
-    <mergeCell ref="A67:A74"/>
-    <mergeCell ref="A75:A87"/>
-    <mergeCell ref="A88:A92"/>
-    <mergeCell ref="A93:A103"/>
-    <mergeCell ref="A104:A122"/>
-    <mergeCell ref="A123:A132"/>
-    <mergeCell ref="A133:A192"/>
-    <mergeCell ref="A193:A205"/>
-    <mergeCell ref="A206:A218"/>
+    <mergeCell ref="A67:A75"/>
+    <mergeCell ref="A76:A88"/>
+    <mergeCell ref="A89:A93"/>
+    <mergeCell ref="A94:A104"/>
+    <mergeCell ref="A105:A123"/>
+    <mergeCell ref="A124:A133"/>
+    <mergeCell ref="A134:A193"/>
+    <mergeCell ref="A194:A206"/>
+    <mergeCell ref="A207:A232"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
